--- a/docs/keywords.xlsx
+++ b/docs/keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan.Crane\Documents\AMAT Resources\DataMiningExperiments\Text Sentiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dan/Documents/ACI/ArmyBand_TextAnalysis/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{93991DBF-84F9-467B-AA9D-2CB7E7E7347D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7885C124-AAC7-BF4A-8CFE-71E5E178109E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="460" windowWidth="23520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t>Army Music Key Words/Phrases</t>
-  </si>
-  <si>
     <t>Trust</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Respect</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -505,252 +505,252 @@
   <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/docs/keywords.xlsx
+++ b/docs/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dan/Documents/ACI/ArmyBand_TextAnalysis/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7885C124-AAC7-BF4A-8CFE-71E5E178109E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898B67E-2906-CA46-AB73-C9930E4C9A65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="460" windowWidth="23520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Trust</t>
   </si>
@@ -33,51 +33,15 @@
     <t>Understanding</t>
   </si>
   <si>
-    <t>Builds Trust</t>
-  </si>
-  <si>
-    <t>Strengthens Bonds</t>
-  </si>
-  <si>
     <t>Inspire</t>
   </si>
   <si>
-    <t>National Values</t>
-  </si>
-  <si>
-    <t>National Beliefs</t>
-  </si>
-  <si>
-    <t>Preserves Customs</t>
-  </si>
-  <si>
     <t>Culture</t>
   </si>
   <si>
-    <t>Unites Cultures</t>
-  </si>
-  <si>
-    <t>Tells America's Story</t>
-  </si>
-  <si>
-    <t>Esprit de Corps</t>
-  </si>
-  <si>
-    <t>Supports Community</t>
-  </si>
-  <si>
     <t>Community</t>
   </si>
   <si>
-    <t>Mental Health</t>
-  </si>
-  <si>
-    <t>Emotional Health</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -90,15 +54,9 @@
     <t>Morale</t>
   </si>
   <si>
-    <t>Strengthen Morale</t>
-  </si>
-  <si>
     <t>Sustainment</t>
   </si>
   <si>
-    <t>Quality of Life</t>
-  </si>
-  <si>
     <t>Quality</t>
   </si>
   <si>
@@ -117,21 +75,12 @@
     <t>Army</t>
   </si>
   <si>
-    <t>U.S. Army</t>
-  </si>
-  <si>
     <t>Troops</t>
   </si>
   <si>
     <t>Soldiers</t>
   </si>
   <si>
-    <t>Know your Military</t>
-  </si>
-  <si>
-    <t>Know your Army</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -147,9 +96,6 @@
     <t>Professional</t>
   </si>
   <si>
-    <t>Profession of Arms</t>
-  </si>
-  <si>
     <t>Inspiration</t>
   </si>
   <si>
@@ -169,6 +115,42 @@
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>Strengthen</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Beliefs</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Customs</t>
+  </si>
+  <si>
+    <t>Preserves</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>Unites</t>
+  </si>
+  <si>
+    <t>Esprit</t>
   </si>
 </sst>
 </file>
@@ -502,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -515,7 +497,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -530,227 +512,207 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
